--- a/results/tables/performance/per_class_all_metrics_compact.xlsx
+++ b/results/tables/performance/per_class_all_metrics_compact.xlsx
@@ -486,10 +486,10 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>0.3831775700934579</v>
+        <v>0.383</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.429</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.385</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.5573770491803278</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -560,16 +560,16 @@
         </is>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.6539509536784741</v>
+        <v>0.654</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.6310160427807486</v>
+        <v>0.631</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.6627565982404692</v>
+        <v>0.663</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>0.7661290322580645</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="4">
@@ -584,16 +584,16 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7466964972383416</v>
+        <v>0.747</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7443767080092495</v>
+        <v>0.744</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7383329936824944</v>
+        <v>0.738</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7392054076424335</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="5">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.3488372093023256</v>
+        <v>0.349</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.306</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>0.5</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8652890919928472</v>
+        <v>0.865</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8522215697788217</v>
+        <v>0.852</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8909284951974387</v>
+        <v>0.891</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8528594122319301</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0.7891156462585034</v>
+        <v>0.789</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.8791208791208791</v>
+        <v>0.879</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.7986111111111112</v>
+        <v>0.799</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="8">
@@ -680,16 +680,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1366666666666667</v>
+        <v>0.137</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0.17</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.117</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1133333333333333</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="9">
@@ -704,16 +704,16 @@
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>0.4316546762589928</v>
+        <v>0.432</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>0.4244604316546763</v>
+        <v>0.424</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.4064748201438849</v>
+        <v>0.406</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>0.341726618705036</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="10">
@@ -728,16 +728,16 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9311246730601569</v>
+        <v>0.931</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9261551874455101</v>
+        <v>0.926</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9476024411508283</v>
+        <v>0.948</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9343504795117699</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -752,13 +752,13 @@
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.429</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.314</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.257</v>
       </c>
       <c r="F11" s="7" t="n">
         <v>0.2</v>
@@ -776,16 +776,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5872437971952535</v>
+        <v>0.587</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.587108953613808</v>
+        <v>0.587</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5628371089536138</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5791531823085221</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="13">
@@ -800,16 +800,16 @@
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>0.5201793721973094</v>
+        <v>0.52</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>0.3587443946188341</v>
+        <v>0.359</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>0.515695067264574</v>
+        <v>0.516</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>0.5112107623318386</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="14">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2014742014742015</v>
+        <v>0.201</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.243436754176611</v>
+        <v>0.243</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1790281329923274</v>
+        <v>0.179</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1883656509695291</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="15">
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="C15" s="7" t="n">
-        <v>0.5200433369447454</v>
+        <v>0.52</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>0.5075268817204301</v>
+        <v>0.508</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>0.5039018952062431</v>
+        <v>0.504</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>0.472636815920398</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="16">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.82877429868467</v>
+        <v>0.829</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.8253758595237171</v>
+        <v>0.825</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8299797640410829</v>
+        <v>0.83</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8254004929143561</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17">
@@ -896,13 +896,13 @@
         </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.385</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>0.3098591549295774</v>
+        <v>0.31</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>0.3396226415094339</v>
+        <v>0.34</v>
       </c>
       <c r="F17" s="7" t="n">
         <v>0.28</v>
@@ -920,16 +920,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6996545907301791</v>
+        <v>0.7</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.695249500998004</v>
+        <v>0.695</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6898603421204859</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6898490202377128</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -944,16 +944,16 @@
         </is>
       </c>
       <c r="C19" s="7" t="n">
-        <v>0.6270270270270271</v>
+        <v>0.627</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>0.5095541401273885</v>
+        <v>0.51</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>0.6267029972752044</v>
+        <v>0.627</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>0.6246575342465753</v>
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/performance/per_class_all_metrics_compact.xlsx
+++ b/results/tables/performance/per_class_all_metrics_compact.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,10 +486,11 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -505,22 +506,27 @@
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>RESNET101</t>
+          <t>CONVNEXT_TINY</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>RESNET152</t>
+          <t>DENSENET121</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>RESNET18</t>
+          <t>EFFICIENTNET_B3</t>
         </is>
       </c>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>RESNET34</t>
+          <t>RESNET50</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>SWIN_TINY</t>
         </is>
       </c>
     </row>
@@ -536,16 +542,19 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>0.383</v>
+        <v>0.638</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.429</v>
+        <v>0.583</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.385</v>
+        <v>0.573</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.417</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>0.671</v>
       </c>
     </row>
     <row r="3">
@@ -560,16 +569,19 @@
         </is>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.654</v>
+        <v>0.644</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.631</v>
+        <v>0.761</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.663</v>
+        <v>0.889</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>0.766</v>
+        <v>0.77</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>0.681</v>
       </c>
     </row>
     <row r="4">
@@ -584,16 +596,19 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.747</v>
+        <v>0.757</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.744</v>
+        <v>0.755</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.738</v>
+        <v>0.742</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.739</v>
+        <v>0.752</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.762</v>
       </c>
     </row>
     <row r="5">
@@ -608,16 +623,19 @@
         </is>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.349</v>
+        <v>0.7</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.306</v>
+        <v>0.471</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.5</v>
+        <v>0.387</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>0.467</v>
+        <v>0.364</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>0.643</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +650,19 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.865</v>
+        <v>0.907</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.852</v>
+        <v>0.894</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.891</v>
+        <v>0.914</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.853</v>
+        <v>0.899</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.904</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +677,19 @@
         </is>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0.789</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.879</v>
+        <v>0.699</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.799</v>
+        <v>0.882</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>0.803</v>
+        <v>0.831</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>0.726</v>
       </c>
     </row>
     <row r="8">
@@ -680,16 +704,19 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.137</v>
+        <v>0.123</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.117</v>
+        <v>0.183</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.113</v>
+        <v>0.143</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.163</v>
       </c>
     </row>
     <row r="9">
@@ -704,16 +731,19 @@
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>0.432</v>
+        <v>0.511</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.406</v>
+        <v>0.288</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>0.342</v>
+        <v>0.423</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>0.468</v>
       </c>
     </row>
     <row r="10">
@@ -728,16 +758,19 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.931</v>
+        <v>0.952</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.926</v>
+        <v>0.951</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.948</v>
+        <v>0.965</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.954</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.951</v>
       </c>
     </row>
     <row r="11">
@@ -752,16 +785,19 @@
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>0.429</v>
+        <v>0.2</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>0.314</v>
+        <v>0.229</v>
       </c>
       <c r="E11" s="7" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="G11" s="7" t="n">
         <v>0.257</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>0.2</v>
       </c>
     </row>
     <row r="12">
@@ -776,16 +812,19 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.587</v>
+        <v>0.603</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.587</v>
+        <v>0.602</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.577</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.579</v>
+        <v>0.591</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.616</v>
       </c>
     </row>
     <row r="13">
@@ -800,16 +839,19 @@
         </is>
       </c>
       <c r="C13" s="7" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="D13" s="7" t="n">
         <v>0.52</v>
       </c>
-      <c r="D13" s="7" t="n">
-        <v>0.359</v>
-      </c>
       <c r="E13" s="7" t="n">
-        <v>0.516</v>
+        <v>0.435</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>0.511</v>
+        <v>0.552</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>0.547</v>
       </c>
     </row>
     <row r="14">
@@ -824,16 +866,19 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.201</v>
+        <v>0.207</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.243</v>
+        <v>0.226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.179</v>
+        <v>0.278</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.188</v>
+        <v>0.213</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.263</v>
       </c>
     </row>
     <row r="15">
@@ -848,16 +893,19 @@
         </is>
       </c>
       <c r="C15" s="7" t="n">
-        <v>0.52</v>
+        <v>0.57</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>0.508</v>
+        <v>0.543</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>0.504</v>
+        <v>0.435</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>0.473</v>
+        <v>0.546</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>0.554</v>
       </c>
     </row>
     <row r="16">
@@ -872,16 +920,19 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.829</v>
+        <v>0.843</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.825</v>
+        <v>0.842</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.83</v>
+        <v>0.839</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.825</v>
+        <v>0.841</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.846</v>
       </c>
     </row>
     <row r="17">
@@ -896,16 +947,19 @@
         </is>
       </c>
       <c r="C17" s="7" t="n">
-        <v>0.385</v>
+        <v>0.311</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>0.31</v>
+        <v>0.308</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>0.34</v>
+        <v>0.364</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>0.28</v>
+        <v>0.174</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>0.367</v>
       </c>
     </row>
     <row r="18">
@@ -920,16 +974,19 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7</v>
+        <v>0.724</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.695</v>
+        <v>0.719</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.708</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.713</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.732</v>
       </c>
     </row>
     <row r="19">
@@ -944,16 +1001,19 @@
         </is>
       </c>
       <c r="C19" s="7" t="n">
-        <v>0.627</v>
+        <v>0.626</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>0.51</v>
+        <v>0.596</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>0.627</v>
+        <v>0.583</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>0.625</v>
+        <v>0.663</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>0.624</v>
       </c>
     </row>
   </sheetData>
